--- a/Documents/Timelogs/Timelog - Britney.xlsx
+++ b/Documents/Timelogs/Timelog - Britney.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Hours</t>
   </si>
@@ -27,6 +27,12 @@
   <si>
     <t xml:space="preserve">Britney </t>
   </si>
+  <si>
+    <t>9/14/2014 : Evaluate and summarize Analysis documents for both projects</t>
+  </si>
+  <si>
+    <t>9/15/2014 : Evaluate and summarize Analysis documents for both projects</t>
+  </si>
 </sst>
 </file>
 
@@ -102,10 +108,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
@@ -113,6 +115,11 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -348,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -374,32 +381,35 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="17" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="17" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,7 +715,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -736,154 +746,163 @@
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>